--- a/ch/预定语料和命令和其他须知.xlsx
+++ b/ch/预定语料和命令和其他须知.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>预定上午9:00-11:00和昌12楼大会议室</t>
   </si>
@@ -340,6 +340,24 @@
   </si>
   <si>
     <t>预定4月2日和昌13楼大会议室17:30-18:00</t>
+  </si>
+  <si>
+    <t>订小会议室 9：10-10：30</t>
+  </si>
+  <si>
+    <t>预定上午大会议室</t>
+  </si>
+  <si>
+    <t>订今天下午大会议室 14：00-17：00</t>
+  </si>
+  <si>
+    <t>下午大会议室预订取消</t>
+  </si>
+  <si>
+    <t>预定今天大会议室14～18点</t>
+  </si>
+  <si>
+    <t>订今天小会议室 16：00-18：00</t>
   </si>
 </sst>
 </file>
@@ -347,10 +365,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -368,7 +386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -377,7 +394,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,7 +409,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,22 +460,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -436,24 +485,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,39 +500,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,6 +510,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,19 +539,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,73 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,13 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,13 +653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,19 +677,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,13 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,11 +735,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,22 +811,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,39 +830,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -820,10 +838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,133 +850,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -966,13 +984,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1326,10 +1344,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y503"/>
+  <dimension ref="A1:Y504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1365,13 +1383,13 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -1386,13 +1404,13 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
@@ -1404,12 +1422,12 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
@@ -1421,13 +1439,13 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
@@ -1442,13 +1460,13 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
@@ -1460,13 +1478,13 @@
       <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
@@ -1478,13 +1496,13 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
@@ -1496,13 +1514,13 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
@@ -1511,13 +1529,13 @@
       <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -1529,13 +1547,13 @@
       <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
@@ -1544,13 +1562,13 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -1567,8 +1585,8 @@
       <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -1719,7 +1737,7 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1903,1391 +1921,1412 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="3"/>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="3"/>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="3"/>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="3"/>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="3"/>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="3"/>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="3"/>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="3"/>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="3"/>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="3"/>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="3"/>
+      <c r="A100" s="2"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="3"/>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="3"/>
+      <c r="A102" s="2"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="3"/>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="4"/>
+      <c r="A104" s="2"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="3"/>
+      <c r="A105" s="4"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="3"/>
+      <c r="A106" s="2"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="3"/>
+      <c r="A107" s="2"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="3"/>
+      <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="3"/>
+      <c r="A109" s="2"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="3" t="e">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="3" t="e">
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="3" t="e">
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="3" t="e">
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="3" t="e">
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="3" t="e">
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="3" t="e">
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="3" t="e">
+    <row r="118" spans="1:1">
+      <c r="A118" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="3" t="e">
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="3" t="e">
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="3" t="e">
+    <row r="121" spans="1:1">
+      <c r="A121" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="3" t="e">
+    <row r="122" spans="1:1">
+      <c r="A122" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="3" t="e">
+    <row r="123" spans="1:1">
+      <c r="A123" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="3" t="e">
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="3" t="e">
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="3" t="e">
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="3" t="e">
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="3" t="e">
+    <row r="128" spans="1:1">
+      <c r="A128" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="3" t="e">
+    <row r="129" spans="1:1">
+      <c r="A129" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="3" t="e">
+    <row r="130" spans="1:1">
+      <c r="A130" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="3" t="e">
+    <row r="131" spans="1:1">
+      <c r="A131" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="3" t="e">
+    <row r="132" spans="1:1">
+      <c r="A132" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="3" t="e">
+    <row r="133" spans="1:1">
+      <c r="A133" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="3" t="e">
+    <row r="134" spans="1:1">
+      <c r="A134" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="3" t="e">
+    <row r="135" spans="1:1">
+      <c r="A135" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="3" t="e">
+    <row r="136" spans="1:1">
+      <c r="A136" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="3" t="e">
+    <row r="137" spans="1:1">
+      <c r="A137" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="3" t="e">
+    <row r="138" spans="1:1">
+      <c r="A138" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="3" t="e">
+    <row r="139" spans="1:1">
+      <c r="A139" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="3" t="e">
+    <row r="140" spans="1:1">
+      <c r="A140" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="3">
-        <f t="shared" ref="A106:A149" si="0">A90</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
+        <f t="shared" ref="A107:A150" si="0">A91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="3">
+    <row r="143" spans="1:1">
+      <c r="A143" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="3">
+    <row r="144" spans="1:1">
+      <c r="A144" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="3">
+    <row r="145" spans="1:1">
+      <c r="A145" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="3">
+    <row r="146" spans="1:1">
+      <c r="A146" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="3">
+    <row r="147" spans="1:1">
+      <c r="A147" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="3">
+    <row r="148" spans="1:1">
+      <c r="A148" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="3">
+    <row r="149" spans="1:1">
+      <c r="A149" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="3">
+    <row r="150" spans="1:1">
+      <c r="A150" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="3">
-        <f t="shared" ref="A150:A203" si="1">A100</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="3">
-        <f t="shared" si="1"/>
+      <c r="A151" s="2">
+        <f t="shared" ref="A151:A204" si="1">A101</f>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="3">
+      <c r="A152" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="3">
+      <c r="A153" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="4">
-        <f>A104+1</f>
+      <c r="A154" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="4">
+        <f>A105+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="3">
+      <c r="A156" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="3">
+      <c r="A157" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="3">
+      <c r="A159" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="A160" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="3" t="e">
+      <c r="A161" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="3" t="e">
+      <c r="A162" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="3" t="e">
+      <c r="A163" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="3" t="e">
+      <c r="A164" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="3" t="e">
+      <c r="A165" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="3" t="e">
+      <c r="A166" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="3" t="e">
+      <c r="A167" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="3" t="e">
+      <c r="A168" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="3" t="e">
+      <c r="A169" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="3" t="e">
+      <c r="A170" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="3" t="e">
+      <c r="A171" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="3" t="e">
+      <c r="A172" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="3" t="e">
+      <c r="A173" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="3" t="e">
+      <c r="A174" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="3" t="e">
+      <c r="A175" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="3" t="e">
+      <c r="A176" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="3" t="e">
+      <c r="A177" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="3" t="e">
+      <c r="A178" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="3" t="e">
+      <c r="A179" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="3" t="e">
+      <c r="A180" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="3" t="e">
+      <c r="A181" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="3" t="e">
+      <c r="A182" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="3" t="e">
+      <c r="A183" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="3" t="e">
+      <c r="A184" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="3" t="e">
+      <c r="A185" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="3" t="e">
+      <c r="A186" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="3" t="e">
+      <c r="A187" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="3" t="e">
+      <c r="A188" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="3" t="e">
+      <c r="A189" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A190" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="3">
+      <c r="A191" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="3">
+      <c r="A192" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="3">
+      <c r="A193" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="3">
+      <c r="A194" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="3">
+      <c r="A195" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="3">
+      <c r="A196" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="3">
+      <c r="A197" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="3">
+      <c r="A198" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="3">
+      <c r="A199" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="3">
+      <c r="A200" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="3">
+      <c r="A201" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="3">
+      <c r="A202" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="3">
+      <c r="A203" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="4">
-        <f>A154+1</f>
+      <c r="A204" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="4">
+        <f>A155+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="3">
-        <f t="shared" ref="A205:A253" si="2">A155</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="3">
-        <f t="shared" si="2"/>
+      <c r="A206" s="2">
+        <f t="shared" ref="A206:A254" si="2">A156</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="3">
+      <c r="A207" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="3">
+      <c r="A208" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="3">
+      <c r="A209" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="A210" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="3" t="e">
+      <c r="A211" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="3" t="e">
+      <c r="A212" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="3" t="e">
+      <c r="A213" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="3" t="e">
+      <c r="A214" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="3" t="e">
+      <c r="A215" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="3" t="e">
+      <c r="A216" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="3" t="e">
+      <c r="A217" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="3" t="e">
+      <c r="A218" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="3" t="e">
+      <c r="A219" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="3" t="e">
+      <c r="A220" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="3" t="e">
+      <c r="A221" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="3" t="e">
+      <c r="A222" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="3" t="e">
+      <c r="A223" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="3" t="e">
+      <c r="A224" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="3" t="e">
+      <c r="A225" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="3" t="e">
+      <c r="A226" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="3" t="e">
+      <c r="A227" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="3" t="e">
+      <c r="A228" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="3" t="e">
+      <c r="A229" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="3" t="e">
+      <c r="A230" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="3" t="e">
+      <c r="A231" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="3" t="e">
+      <c r="A232" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="3" t="e">
+      <c r="A233" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="3" t="e">
+      <c r="A234" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="3" t="e">
+      <c r="A235" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="3" t="e">
+      <c r="A236" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="3" t="e">
+      <c r="A237" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="3" t="e">
+      <c r="A238" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="3" t="e">
+      <c r="A239" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="A240" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="3">
+      <c r="A241" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="3">
+      <c r="A242" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="3">
+      <c r="A243" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="3">
+      <c r="A244" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="3">
+      <c r="A245" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="3">
+      <c r="A246" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="3">
+      <c r="A247" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="3">
+      <c r="A248" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="3">
+      <c r="A249" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="3">
+      <c r="A250" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="3">
+      <c r="A251" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="3">
+      <c r="A252" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="3">
+      <c r="A253" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="4">
-        <f>A204+1</f>
+      <c r="A254" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="4">
+        <f>A205+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="3">
-        <f t="shared" ref="A255:A303" si="3">A205</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="3">
-        <f t="shared" si="3"/>
+      <c r="A256" s="2">
+        <f t="shared" ref="A256:A304" si="3">A206</f>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="3">
+      <c r="A257" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="3">
+      <c r="A258" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="3">
+      <c r="A259" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+      <c r="A260" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="3" t="e">
+      <c r="A261" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="3" t="e">
+      <c r="A262" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="3" t="e">
+      <c r="A263" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="3" t="e">
+      <c r="A264" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="3" t="e">
+      <c r="A265" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="3" t="e">
+      <c r="A266" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="3" t="e">
+      <c r="A267" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="3" t="e">
+      <c r="A268" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="3" t="e">
+      <c r="A269" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="3" t="e">
+      <c r="A270" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="3" t="e">
+      <c r="A271" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="3" t="e">
+      <c r="A272" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="3" t="e">
+      <c r="A273" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="3" t="e">
+      <c r="A274" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="3" t="e">
+      <c r="A275" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="3" t="e">
+      <c r="A276" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="3" t="e">
+      <c r="A277" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="3" t="e">
+      <c r="A278" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="3" t="e">
+      <c r="A279" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="3" t="e">
+      <c r="A280" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="3" t="e">
+      <c r="A281" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="3" t="e">
+      <c r="A282" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="3" t="e">
+      <c r="A283" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="3" t="e">
+      <c r="A284" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="3" t="e">
+      <c r="A285" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="3" t="e">
+      <c r="A286" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="3" t="e">
+      <c r="A287" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="3" t="e">
+      <c r="A288" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="3" t="e">
+      <c r="A289" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="A290" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="3">
+      <c r="A291" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="3">
+      <c r="A292" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="3">
+      <c r="A293" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="3">
+      <c r="A294" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="3">
+      <c r="A295" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="3">
+      <c r="A296" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="3">
+      <c r="A297" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="3">
+      <c r="A298" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="3">
+      <c r="A299" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="3">
+      <c r="A300" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="3">
+      <c r="A301" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="3">
+      <c r="A302" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="3">
+      <c r="A303" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="4">
-        <f>A254+1</f>
+      <c r="A304" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="4">
+        <f>A255+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
-      <c r="A305" s="3">
-        <f t="shared" ref="A305:A353" si="4">A255</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="3">
-        <f t="shared" si="4"/>
+      <c r="A306" s="2">
+        <f t="shared" ref="A306:A354" si="4">A256</f>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="3">
+      <c r="A307" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="3">
+      <c r="A308" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="3">
+      <c r="A309" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+      <c r="A310" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="3" t="e">
+      <c r="A311" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="3" t="e">
+      <c r="A312" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="3" t="e">
+      <c r="A313" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="3" t="e">
+      <c r="A314" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="3" t="e">
+      <c r="A315" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="3" t="e">
+      <c r="A316" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="3" t="e">
+      <c r="A317" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="3" t="e">
+      <c r="A318" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="3" t="e">
+      <c r="A319" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="3" t="e">
+      <c r="A320" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="3" t="e">
+      <c r="A321" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="3" t="e">
+      <c r="A322" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="3" t="e">
+      <c r="A323" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="3" t="e">
+      <c r="A324" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="3" t="e">
+      <c r="A325" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="3" t="e">
+      <c r="A326" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="3" t="e">
+      <c r="A327" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B329">
-        <v>1</v>
+      <c r="A328" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="3" t="e">
+      <c r="A330" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3296,7 +3335,7 @@
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="3" t="e">
+      <c r="A331" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3305,7 +3344,7 @@
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="3" t="e">
+      <c r="A332" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3314,7 +3353,7 @@
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="3" t="e">
+      <c r="A333" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3323,7 +3362,7 @@
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="3" t="e">
+      <c r="A334" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3332,7 +3371,7 @@
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="3" t="e">
+      <c r="A335" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3341,7 +3380,7 @@
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="3" t="e">
+      <c r="A336" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3350,7 +3389,7 @@
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="3" t="e">
+      <c r="A337" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3359,7 +3398,7 @@
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="3" t="e">
+      <c r="A338" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3368,7 +3407,7 @@
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="3" t="e">
+      <c r="A339" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -3377,988 +3416,997 @@
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="A340" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
       </c>
       <c r="B340">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
-      <c r="A341" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="3">
+      <c r="A342" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="3">
+      <c r="A343" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="3">
+      <c r="A344" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="3">
+      <c r="A345" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="3">
+      <c r="A346" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="3">
+      <c r="A347" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="3">
+      <c r="A348" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="3">
+      <c r="A349" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="3">
+      <c r="A350" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="3">
+      <c r="A351" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="3">
+      <c r="A352" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="3">
+      <c r="A353" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="4">
-        <f>A304+1</f>
+      <c r="A354" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="4">
+        <f>A305+1</f>
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="3">
-        <f t="shared" ref="A355:A403" si="5">A305</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="3">
-        <f t="shared" si="5"/>
+      <c r="A356" s="2">
+        <f t="shared" ref="A356:A404" si="5">A306</f>
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="3">
+      <c r="A357" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="3">
+      <c r="A358" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="3">
+      <c r="A359" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+      <c r="A360" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="3" t="e">
+      <c r="A361" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="3" t="e">
+      <c r="A362" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="3" t="e">
+      <c r="A363" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="3" t="e">
+      <c r="A364" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="3" t="e">
+      <c r="A365" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="3" t="e">
+      <c r="A366" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="3" t="e">
+      <c r="A367" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="3" t="e">
+      <c r="A368" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="3" t="e">
+      <c r="A369" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="3" t="e">
+      <c r="A370" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="3" t="e">
+      <c r="A371" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="3" t="e">
+      <c r="A372" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="3" t="e">
+      <c r="A373" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="3" t="e">
+      <c r="A374" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="3" t="e">
+      <c r="A375" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="3" t="e">
+      <c r="A376" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="3" t="e">
+      <c r="A377" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="3" t="e">
+      <c r="A378" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="3" t="e">
+      <c r="A379" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="3" t="e">
+      <c r="A380" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="3" t="e">
+      <c r="A381" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="3" t="e">
+      <c r="A382" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="3" t="e">
+      <c r="A383" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="3" t="e">
+      <c r="A384" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="3" t="e">
+      <c r="A385" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="3" t="e">
+      <c r="A386" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="3" t="e">
+      <c r="A387" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="3" t="e">
+      <c r="A388" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="3" t="e">
+      <c r="A389" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="A390" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="3">
+      <c r="A391" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="3">
+      <c r="A392" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="3">
+      <c r="A393" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="3">
+      <c r="A394" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="3">
+      <c r="A395" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="3">
+      <c r="A396" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="3">
+      <c r="A397" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="3">
+      <c r="A398" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="3">
+      <c r="A399" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="3">
+      <c r="A400" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="3">
+      <c r="A401" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="3">
+      <c r="A402" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="3">
+      <c r="A403" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="4">
-        <f>A354+1</f>
+      <c r="A404" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="4">
+        <f>A355+1</f>
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
-      <c r="A405" s="3">
-        <f t="shared" ref="A405:A453" si="6">A355</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="3">
-        <f t="shared" si="6"/>
+      <c r="A406" s="2">
+        <f t="shared" ref="A406:A454" si="6">A356</f>
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="3">
+      <c r="A407" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="3">
+      <c r="A408" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="3">
+      <c r="A409" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
+      <c r="A410" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="3" t="e">
+      <c r="A411" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="3" t="e">
+      <c r="A412" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="3" t="e">
+      <c r="A413" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="3" t="e">
+      <c r="A414" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="3" t="e">
+      <c r="A415" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="3" t="e">
+      <c r="A416" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="3" t="e">
+      <c r="A417" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="3" t="e">
+      <c r="A418" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="3" t="e">
+      <c r="A419" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="3" t="e">
+      <c r="A420" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="3" t="e">
+      <c r="A421" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="3" t="e">
+      <c r="A422" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="3" t="e">
+      <c r="A423" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="3" t="e">
+      <c r="A424" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="3" t="e">
+      <c r="A425" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="3" t="e">
+      <c r="A426" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="3" t="e">
+      <c r="A427" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="3" t="e">
+      <c r="A428" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="3" t="e">
+      <c r="A429" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="3" t="e">
+      <c r="A430" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="3" t="e">
+      <c r="A431" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="3" t="e">
+      <c r="A432" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="3" t="e">
+      <c r="A433" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="3" t="e">
+      <c r="A434" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="3" t="e">
+      <c r="A435" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="3" t="e">
+      <c r="A436" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="3" t="e">
+      <c r="A437" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="3" t="e">
+      <c r="A438" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="3" t="e">
+      <c r="A439" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="A440" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="3">
+      <c r="A441" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="3">
+      <c r="A442" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="3">
+      <c r="A443" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="3">
+      <c r="A444" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="3">
+      <c r="A445" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="3">
+      <c r="A446" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="3">
+      <c r="A447" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="3">
+      <c r="A448" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="3">
+      <c r="A449" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="3">
+      <c r="A450" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="3">
+      <c r="A451" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="3">
+      <c r="A452" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="3">
+      <c r="A453" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="4">
-        <f>A404+1</f>
+      <c r="A454" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="4">
+        <f>A405+1</f>
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
-      <c r="A455" s="3">
-        <f t="shared" ref="A455:A503" si="7">A405</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="3">
-        <f t="shared" si="7"/>
+      <c r="A456" s="2">
+        <f t="shared" ref="A456:A504" si="7">A406</f>
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="3">
+      <c r="A457" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="3">
+      <c r="A458" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="3">
+      <c r="A459" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
+      <c r="A460" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="3" t="e">
+      <c r="A461" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="3" t="e">
+      <c r="A462" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="3" t="e">
+      <c r="A463" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="3" t="e">
+      <c r="A464" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="3" t="e">
+      <c r="A465" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="3" t="e">
+      <c r="A466" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="3" t="e">
+      <c r="A467" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="3" t="e">
+      <c r="A468" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="3" t="e">
+      <c r="A469" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="3" t="e">
+      <c r="A470" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="3" t="e">
+      <c r="A471" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="3" t="e">
+      <c r="A472" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="3" t="e">
+      <c r="A473" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="3" t="e">
+      <c r="A474" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="3" t="e">
+      <c r="A475" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="3" t="e">
+      <c r="A476" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="3" t="e">
+      <c r="A477" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="3" t="e">
+      <c r="A478" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="3" t="e">
+      <c r="A479" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="3" t="e">
+      <c r="A480" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="3" t="e">
+      <c r="A481" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="3" t="e">
+      <c r="A482" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="3" t="e">
+      <c r="A483" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="3" t="e">
+      <c r="A484" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="3" t="e">
+      <c r="A485" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="3" t="e">
+      <c r="A486" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="3" t="e">
+      <c r="A487" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="3" t="e">
+      <c r="A488" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="3" t="e">
+      <c r="A489" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="A490" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="3">
+      <c r="A491" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="3">
+      <c r="A492" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="3">
+      <c r="A493" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="3">
+      <c r="A494" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="3">
+      <c r="A495" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="3">
+      <c r="A496" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="3">
+      <c r="A497" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="3">
+      <c r="A498" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="3">
+      <c r="A499" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="3">
+      <c r="A500" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="3">
+      <c r="A501" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="3">
+      <c r="A502" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="3">
+      <c r="A503" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4368,7 +4416,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A454:A503" formula="1"/>
+    <ignoredError sqref="A455:A504" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ch/预定语料和命令和其他须知.xlsx
+++ b/ch/预定语料和命令和其他须知.xlsx
@@ -398,10 +398,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -419,21 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -442,7 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,7 +442,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,11 +494,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,11 +533,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,46 +556,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,43 +578,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,138 +759,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,36 +797,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -837,6 +807,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,6 +846,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -867,29 +879,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,145 +901,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,8 +1464,8 @@
   <sheetPr/>
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2082,12 +2082,12 @@
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2097,12 +2097,12 @@
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="1" t="s">
         <v>123</v>
       </c>
     </row>

--- a/ch/预定语料和命令和其他须知.xlsx
+++ b/ch/预定语料和命令和其他须知.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>配置文件</t>
   </si>
   <si>
-    <t>在路径C:\Users\c2534\.qqbot-tmp中打开v2.3.conf</t>
+    <t>C:\Users\c2534\.qqbot-tmp\v2.3.conf</t>
   </si>
   <si>
     <t>启动</t>
@@ -126,67 +126,37 @@
     <t>使用脚本注意事项</t>
   </si>
   <si>
-    <t>需要做的工作</t>
-  </si>
-  <si>
-    <t>预定会议室的使用时间单位是十五分钟，不足十五分钟不算</t>
-  </si>
-  <si>
-    <t>开始提前 结束延后</t>
+    <t>预定会议室的使用时间单位是十五分钟</t>
   </si>
   <si>
     <t>不检测年，意味着无法跨年预定</t>
   </si>
   <si>
-    <t>加入年的检测</t>
-  </si>
-  <si>
-    <t>无法检测出两个时间段</t>
-  </si>
-  <si>
-    <t>请保证一个时间段有开始和结束时间</t>
-  </si>
-  <si>
-    <t>最早8：00最晚20：30</t>
+    <t>无法检测出多个时间段</t>
+  </si>
+  <si>
+    <t>最早8：00最晚20：30 不支持凌晨和晚上的时间</t>
   </si>
   <si>
     <t>不要使用3-15表示日期（3.15），会和时间混淆</t>
   </si>
   <si>
-    <t>程序无法接受快速预定 所有群预定频率一秒一次（没有仔细测试）</t>
+    <t>当网络状况不好时候可能会下线且不会重新登陆</t>
   </si>
   <si>
     <t>不管有没有预定 都能取消</t>
   </si>
   <si>
-    <t>可以取消别人预定的，待解决问题</t>
-  </si>
-  <si>
-    <t>准备加入验证预定人名字</t>
+    <t>可以取消别人预定的</t>
   </si>
   <si>
     <t>有时候会发呆 解决方法 三秒后重复发送预订信息</t>
   </si>
   <si>
-    <t>预约29号下午四点半和昌13楼会议室</t>
-  </si>
-  <si>
-    <t>报错退出 时间不对呀</t>
+    <t>有时候会重复回复，系统性bug，无法解决</t>
   </si>
   <si>
     <t>当检测到日期的描述与‘今天明天’冲突时按照日期为准</t>
-  </si>
-  <si>
-    <t>取消的问题</t>
-  </si>
-  <si>
-    <t>有时候会重复回复，系统性bug，无法解决</t>
-  </si>
-  <si>
-    <t>预定周三（3月14日） 下午3:00--5:00 和昌12楼大会议室</t>
-  </si>
-  <si>
-    <t>清晰出错</t>
   </si>
   <si>
     <t>预定取消</t>
@@ -290,6 +260,9 @@
     <t>预定周三（3月14日） 上午10:00--12:00 和昌12楼小会议室</t>
   </si>
   <si>
+    <t>预定周三（3月14日） 下午3:00--5:00 和昌12楼大会议室</t>
+  </si>
+  <si>
     <t>预定今天3-15和昌12楼大会议室10-12点。</t>
   </si>
   <si>
@@ -371,6 +344,9 @@
     <t>预定27号，下午15点到17点，和昌12层小会议室</t>
   </si>
   <si>
+    <t>预约29号下午四点半和昌13楼会议室</t>
+  </si>
+  <si>
     <t>预定29号下午两点半13楼会议室</t>
   </si>
   <si>
@@ -459,6 +435,12 @@
   </si>
   <si>
     <t>以上问题均已记录</t>
+  </si>
+  <si>
+    <t>预定今天下午十二楼小会议室  14:30—16:30</t>
+  </si>
+  <si>
+    <t>预定4月13日明天天上午十二楼大会议室  9:00—12:00</t>
   </si>
   <si>
     <t>4月11日周三，上午预定实验室</t>
@@ -469,10 +451,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -490,9 +472,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,26 +486,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,15 +502,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,7 +516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,7 +524,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,6 +546,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -603,36 +615,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -655,144 +637,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -800,42 +818,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,65 +852,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -970,6 +893,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -978,10 +960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,133 +972,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,8 +1127,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1545,16 +1527,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:Y45"/>
+  <dimension ref="C1:Y44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="56.625" customWidth="1"/>
-    <col min="4" max="4" width="50.75" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
     <col min="5" max="5" width="45.25" customWidth="1"/>
     <col min="6" max="6" width="50.75" customWidth="1"/>
     <col min="7" max="7" width="45.25" customWidth="1"/>
@@ -1569,7 +1551,8 @@
     <col min="26" max="26" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21">
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="14.25" spans="3:21">
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1817,103 +1800,81 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="30" ht="14.25" spans="3:4">
+    <row r="29" ht="14.25"/>
+    <row r="30" ht="14.25" spans="3:3">
       <c r="C30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
-      <c r="C31" t="s">
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
         <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="3:4">
       <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
+        <v>44</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="3:4">
       <c r="C40" t="s">
-        <v>49</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1928,7 +1889,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1939,485 +1900,489 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2"/>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="4"/>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="4"/>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="4"/>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="4"/>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="4"/>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="4"/>
@@ -2463,7 +2428,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1">

--- a/ch/预定语料和命令和其他须知.xlsx
+++ b/ch/预定语料和命令和其他须知.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12735"/>
+    <workbookView windowWidth="28695" windowHeight="12735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="会议室" sheetId="2" r:id="rId2"/>
+    <sheet name="实验室" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>配置文件</t>
   </si>
@@ -144,7 +144,7 @@
     <t>当网络状况不好时候可能会下线且不会重新登陆</t>
   </si>
   <si>
-    <t>不管有没有预定 都能取消</t>
+    <t>不管有没有预定 都能取消，意思是取消没有失败</t>
   </si>
   <si>
     <t>可以取消别人预定的</t>
@@ -443,7 +443,52 @@
     <t>预定4月13日明天天上午十二楼大会议室  9:00—12:00</t>
   </si>
   <si>
+    <t>预定 8:30~12:00 和昌12层小会议室</t>
+  </si>
+  <si>
+    <t>预定12楼和昌大会议室，10:30–12:00</t>
+  </si>
+  <si>
+    <t>预定下午5:00~6:00和昌12层小会议室</t>
+  </si>
+  <si>
+    <t>预定明天（2018年4月17日） 15:00~18:00 和昌13层会议室</t>
+  </si>
+  <si>
+    <t>预定明天（2018年4月17日） 上午9:00~11:30 和昌13层会议室</t>
+  </si>
+  <si>
+    <t>预订4月17日12楼小会议室，时间：  14：10~15：30</t>
+  </si>
+  <si>
+    <t>预订4月17日12楼小会议室，时间修改为：  16：00~17：30</t>
+  </si>
+  <si>
+    <t>取消预订[4月17日12楼小会议室，时间：  14：10~15：30]</t>
+  </si>
+  <si>
+    <t>修改为预订：4月17日12楼大会议室，时间：16：00~17：30</t>
+  </si>
+  <si>
+    <t>预定今天下午（17日）12楼小会议室 14:00~15:30</t>
+  </si>
+  <si>
+    <t>预定周三上午（18）12楼小会议室，时间：9:00-11:00</t>
+  </si>
+  <si>
+    <t>预定今天下午（17日）12楼大会议室 14:00~16:00</t>
+  </si>
+  <si>
+    <t>预定4月18号和昌13楼大会议室17：00——18：00</t>
+  </si>
+  <si>
+    <t>预定4月18号（周三上午）和昌13楼大会议室9：00——11：00</t>
+  </si>
+  <si>
     <t>4月11日周三，上午预定实验室</t>
+  </si>
+  <si>
+    <t>小扈，下午三点郑州市人民政府数字化办公室主任一行来实验室参观</t>
   </si>
 </sst>
 </file>
@@ -452,9 +497,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -473,50 +518,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,7 +533,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -546,40 +564,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,8 +594,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -637,19 +682,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,163 +832,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,39 +901,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -909,26 +930,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,7 +954,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,137 +1017,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1113,12 +1158,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1131,6 +1170,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,8 +1571,8 @@
   <sheetPr/>
   <dimension ref="C1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1553,256 +1595,256 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="14.25" spans="3:21">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
+      <c r="E2" s="4"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" spans="3:21">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="E4" s="5"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="3:21">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="E5" s="5"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="3:21">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="3:21">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="3:21">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="E9" s="5"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" spans="3:21">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+      <c r="E11" s="5"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="3:25">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="29" ht="14.25"/>
     <row r="30" ht="14.25" spans="3:3">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1835,46 +1877,46 @@
       <c r="C36" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="3:4">
       <c r="C38" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="3:4">
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="8"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="8"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="8"/>
+      <c r="D44" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1886,10 +1928,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2370,40 +2412,92 @@
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="2"/>
+      <c r="A94" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="2"/>
+      <c r="A96" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="4"/>
+      <c r="A97" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="4"/>
+      <c r="A98" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="5"/>
+      <c r="A99" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="5"/>
+      <c r="A100" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="5"/>
+      <c r="A101" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="5"/>
+      <c r="A102" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="5"/>
+      <c r="A103" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2415,24 +2509,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="1" max="1" width="62.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -2442,6 +2538,99 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/ch/预定语料和命令和其他须知.xlsx
+++ b/ch/预定语料和命令和其他须知.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12735" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <t>配置文件</t>
   </si>
@@ -138,10 +138,13 @@
     <t>最早8：00最晚20：30 不支持凌晨和晚上的时间</t>
   </si>
   <si>
-    <t>不要使用3-15表示日期（3.15），会和时间混淆</t>
-  </si>
-  <si>
-    <t>当网络状况不好时候可能会下线且不会重新登陆</t>
+    <t>不要使用3-15表示日期（3.15）</t>
+  </si>
+  <si>
+    <t>不要使用3.15表示时间(15:15)，会和日期混淆</t>
+  </si>
+  <si>
+    <t>@我 可以查看脚本是否在线</t>
   </si>
   <si>
     <t>不管有没有预定 都能取消，意思是取消没有失败</t>
@@ -150,13 +153,16 @@
     <t>可以取消别人预定的</t>
   </si>
   <si>
-    <t>有时候会发呆 解决方法 三秒后重复发送预订信息</t>
-  </si>
-  <si>
-    <t>有时候会重复回复，系统性bug，无法解决</t>
+    <t>当网络状况不好时候脚本可能会发呆 解决方法 重复发送预订信息</t>
+  </si>
+  <si>
+    <t>有时候会回复2次，系统性bug，无法解决</t>
   </si>
   <si>
     <t>当检测到日期的描述与‘今天明天’冲突时按照日期为准</t>
+  </si>
+  <si>
+    <t>人类说话时候不要用 机器人回复 开头 会导致脚本不接受这句话</t>
   </si>
   <si>
     <t>预定取消</t>
@@ -496,10 +502,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -524,15 +530,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -572,8 +576,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,36 +630,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,17 +653,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -682,25 +688,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,157 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,17 +906,55 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,35 +974,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -974,26 +989,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,145 +1011,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1569,10 +1575,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:Y44"/>
+  <dimension ref="C1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1868,55 +1874,63 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="3:4">
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="3:4">
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="4:4">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="3:4">
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
       <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1930,7 +1944,7 @@
   <sheetPr/>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -1942,543 +1956,543 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2"/>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -2522,12 +2536,12 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/ch/预定语料和命令和其他须知.xlsx
+++ b/ch/预定语料和命令和其他须知.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12735"/>
+    <workbookView windowWidth="28695" windowHeight="12735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>配置文件</t>
   </si>
@@ -495,6 +495,18 @@
   </si>
   <si>
     <t>小扈，下午三点郑州市人民政府数字化办公室主任一行来实验室参观</t>
+  </si>
+  <si>
+    <t>明天周六下午5点李国顺院长客人中铁投资参观@扈燕华 @南江 </t>
+  </si>
+  <si>
+    <t>收到</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>周三上午原机械部老领导来我公司参观，请实验室各区域负责人安排好工作，待具体事宜确定后再通知大家。</t>
   </si>
 </sst>
 </file>
@@ -503,8 +515,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -524,6 +536,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -531,12 +550,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -552,90 +650,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -644,9 +658,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,9 +672,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,55 +700,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,13 +820,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,25 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,73 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,9 +920,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,41 +933,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -970,6 +949,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,6 +1006,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1011,145 +1023,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1577,7 +1589,7 @@
   <sheetPr/>
   <dimension ref="C1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -1944,8 +1956,8 @@
   <sheetPr/>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2523,15 +2535,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:A37"/>
+  <dimension ref="A2:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="62.875" customWidth="1"/>
+    <col min="1" max="1" width="100.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -2544,11 +2556,21 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1"/>

--- a/ch/预定语料和命令和其他须知.xlsx
+++ b/ch/预定语料和命令和其他须知.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12735" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>配置文件</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>周三上午原机械部老领导来我公司参观，请实验室各区域负责人安排好工作，待具体事宜确定后再通知大家。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周三上午原机械部老领导来我公司参观，暂定8:10分全部到位，时间如有调整，再通知大家。@LIU @杨建光 @李永胜 @乔辉 @扈燕华 </t>
+  </si>
+  <si>
+    <t>各位好，今天下午15:40孟书记客人四川省建设厅领导参观实验室，请@李永胜 @李豪 @扈燕华 来支持一下，多谢，收到请回复。</t>
   </si>
 </sst>
 </file>
@@ -515,9 +521,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -532,13 +538,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,14 +557,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -573,7 +564,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,24 +624,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,38 +640,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -658,10 +654,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,8 +677,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,6 +706,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -712,13 +784,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,157 +880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,20 +926,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,9 +950,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,6 +974,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -988,6 +994,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,15 +1021,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1023,10 +1029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1035,133 +1041,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1956,7 +1962,7 @@
   <sheetPr/>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
@@ -2537,13 +2543,13 @@
   <sheetPr/>
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="100.375" customWidth="1"/>
+    <col min="1" max="1" width="123.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -2573,10 +2579,14 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1"/>

--- a/ch/预定语料和命令和其他须知.xlsx
+++ b/ch/预定语料和命令和其他须知.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>配置文件</t>
   </si>
@@ -513,6 +513,12 @@
   </si>
   <si>
     <t>各位好，今天下午15:40孟书记客人四川省建设厅领导参观实验室，请@李永胜 @李豪 @扈燕华 来支持一下，多谢，收到请回复。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接通知，明天上午机械部老领导参观时间调整，大家8：50到实验室即可。@李豪 @李永胜 @扈燕华 @苗发祥 </t>
+  </si>
+  <si>
+    <t>预约明天上午九点至十一点实验室@张果 </t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -542,24 +548,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,6 +577,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -593,29 +659,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -625,14 +669,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,45 +690,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -706,187 +712,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,11 +930,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,65 +1019,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,10 +1035,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,133 +1047,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2544,7 +2550,7 @@
   <dimension ref="A2:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2589,10 +2595,14 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1"/>
